--- a/Circle of willis.xlsx
+++ b/Circle of willis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricca\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cad36f076896d7d7/Documenti/Università/Tesi (windows)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92B30E76-2D2B-4626-864F-FB5BEFB987C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DC1E999-40B5-4E7D-B7D4-A36ACE3D9263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2DF432E4-53F2-4262-8313-2C08EAD40796}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -297,7 +297,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -637,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9909EE-2D26-4E21-9BB8-8CAEE7D5B835}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,27 +649,28 @@
     <col min="2" max="2" width="31.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="3"/>
-    <col min="14" max="14" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="3"/>
-    <col min="16" max="16" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="3"/>
-    <col min="18" max="18" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.109375" style="3"/>
-    <col min="20" max="20" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.109375" style="3"/>
-    <col min="22" max="22" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="3"/>
+    <col min="5" max="5" width="14.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="3"/>
+    <col min="15" max="15" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="3"/>
+    <col min="17" max="17" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="3"/>
+    <col min="19" max="19" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="3"/>
+    <col min="21" max="21" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="3"/>
+    <col min="23" max="23" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -679,32 +680,32 @@
       <c r="D1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -718,33 +719,37 @@
         <v>0.15349400452690501</v>
       </c>
       <c r="E2" s="6">
+        <f>D2*C2</f>
+        <v>0.19647693061457422</v>
+      </c>
+      <c r="F2" s="6">
         <f xml:space="preserve"> PI() * D2^2</f>
         <v>7.401720916736422E-2</v>
       </c>
-      <c r="F2" s="6">
-        <f>SQRT(PI()) * 0.1 * D2 * 'additional info'!C13 * 4 / 3 * 10 / 10000000</f>
-        <v>5.803968840845259E-2</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
+        <f>SQRT(PI()) * 0.25 * D2 * 'additional info'!C13 * 4 / 3 * 10 / 10000000</f>
+        <v>0.14509922102113143</v>
+      </c>
+      <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="K2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="6">
         <v>0.77475489712788403</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <v>0.77709154422980697</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -758,33 +763,37 @@
         <v>0.10506081909718799</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E16" si="0" xml:space="preserve"> PI() * D3^2</f>
+        <f t="shared" ref="E3:E16" si="0">D3*C3</f>
+        <v>0.13880635419120477</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F16" si="1" xml:space="preserve"> PI() * D3^2</f>
         <v>3.4676195080535134E-2</v>
       </c>
-      <c r="F3" s="6">
-        <f>SQRT(PI()) * 0.1 * D3 * 'additional info'!C14 * 4 / 3 * 10 / 10000000</f>
-        <v>1.9862981694730518E-2</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
+        <f>SQRT(PI()) * 0.25 * D3 * 'additional info'!C14 * 4 / 3 * 10 / 10000000</f>
+        <v>4.9657454236826298E-2</v>
+      </c>
+      <c r="H3" s="3">
         <v>4</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="J3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="6">
         <v>0.70544338021058395</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <v>0.98716432774233398</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -799,22 +808,26 @@
       </c>
       <c r="E4" s="6">
         <f t="shared" si="0"/>
+        <v>0.32063450235527252</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="1"/>
         <v>3.3806520244132686E-2</v>
       </c>
-      <c r="F4" s="6">
-        <f>SQRT(PI()) * 0.1 * D4 * 'additional info'!C15 * 4 / 3 * 10 / 10000000</f>
-        <v>1.9612319464502086E-2</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>61</v>
+      <c r="G4" s="6">
+        <f>SQRT(PI()) * 0.25 * D4 * 'additional info'!C15 * 4 / 3 * 10 / 10000000</f>
+        <v>4.9030798661255218E-2</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -829,32 +842,36 @@
       </c>
       <c r="E5" s="6">
         <f t="shared" si="0"/>
+        <v>0.10563691322716211</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
         <v>2.5553182158446687E-2</v>
       </c>
-      <c r="F5" s="6">
-        <f>SQRT(PI()) * 0.1 * D5 * 'additional info'!C16 * 4 / 3 * 10 / 10000000</f>
-        <v>1.7051053577825694E-2</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
+        <f>SQRT(PI()) * 0.25 * D5 * 'additional info'!C16 * 4 / 3 * 10 / 10000000</f>
+        <v>4.262763394456423E-2</v>
+      </c>
+      <c r="H5" s="3">
         <v>7</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>8</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="J5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="6">
         <v>1.2182200314754099</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>1.3455947731851301</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>7</v>
       </c>
@@ -869,22 +886,26 @@
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
+        <v>0.85615474941106584</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
         <v>0.12519730382686631</v>
       </c>
-      <c r="F6" s="6">
-        <f>SQRT(PI()) * 0.1 * D6 * 'additional info'!C17 * 4 / 3 * 10 / 10000000</f>
-        <v>7.5484226201743956E-2</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>61</v>
+      <c r="G6" s="6">
+        <f>SQRT(PI()) * 0.25 * D6 * 'additional info'!C17 * 4 / 3 * 10 / 10000000</f>
+        <v>0.18871056550435988</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>8</v>
       </c>
@@ -899,22 +920,26 @@
       </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
+        <v>0.68834342291327388</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
         <v>6.0196148026371396E-2</v>
       </c>
-      <c r="F7" s="6">
-        <f>SQRT(PI()) * 0.1 * D7 * 'additional info'!C18 * 4 / 3 * 10 / 10000000</f>
-        <v>2.6170563527029182E-2</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>61</v>
+      <c r="G7" s="6">
+        <f>SQRT(PI()) * 0.25 * D7 * 'additional info'!C18 * 4 / 3 * 10 / 10000000</f>
+        <v>6.5426408817572945E-2</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>9</v>
       </c>
@@ -929,32 +954,36 @@
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
+        <v>9.705374253750669E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
         <v>2.9522884796300646E-2</v>
       </c>
-      <c r="F8" s="6">
-        <f>SQRT(PI()) * 0.1 * D8 * 'additional info'!C19 * 4 / 3 * 10 / 10000000</f>
-        <v>1.832770641873235E-2</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
+        <f>SQRT(PI()) * 0.25 * D8 * 'additional info'!C19 * 4 / 3 * 10 / 10000000</f>
+        <v>4.5819266046830863E-2</v>
+      </c>
+      <c r="H8" s="3">
         <v>11</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="6">
         <v>1.1378677355422699</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>0.87279457598694898</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>11</v>
       </c>
@@ -969,32 +998,36 @@
       </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
+        <v>0.18550315402420756</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
         <v>3.0148257660422451E-2</v>
       </c>
-      <c r="F9" s="6">
-        <f>SQRT(PI()) * 0.1 * D9 * 'additional info'!C20 * 4 / 3 * 10 / 10000000</f>
-        <v>1.85208038715244E-2</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
+        <f>SQRT(PI()) * 0.25 * D9 * 'additional info'!C20 * 4 / 3 * 10 / 10000000</f>
+        <v>4.6302009678811006E-2</v>
+      </c>
+      <c r="H9" s="3">
         <v>13</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="6">
         <v>1.1364487125117899</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <v>1.3204457314785401</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>13</v>
       </c>
@@ -1009,32 +1042,36 @@
       </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
+        <v>0.11110519082083158</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="1"/>
         <v>8.0037823336139152E-2</v>
       </c>
-      <c r="F10" s="6">
-        <f>SQRT(PI()) * 0.1 * D10 * 'additional info'!C21 * 4 / 3 * 10 / 10000000</f>
-        <v>3.0177020524492264E-2</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
+        <f>SQRT(PI()) * 0.25 * D10 * 'additional info'!C21 * 4 / 3 * 10 / 10000000</f>
+        <v>7.5442551311230677E-2</v>
+      </c>
+      <c r="H10" s="3">
         <v>15</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="6">
         <v>1.00242750055536</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="6">
         <v>0.98200660133143902</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>15</v>
       </c>
@@ -1049,32 +1086,36 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
+        <v>0.2486535153130518</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
         <v>4.3519507458247619E-2</v>
       </c>
-      <c r="F11" s="6">
-        <f>SQRT(PI()) * 0.1 * D11 * 'additional info'!C22 * 4 / 3 * 10 / 10000000</f>
-        <v>2.2252084955308889E-2</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
+        <f>SQRT(PI()) * 0.25 * D11 * 'additional info'!C22 * 4 / 3 * 10 / 10000000</f>
+        <v>5.5630212388272211E-2</v>
+      </c>
+      <c r="H11" s="3">
         <v>17</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>18</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="J11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="6">
         <v>0.89097946920679305</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>0.918440952206383</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>17</v>
       </c>
@@ -1089,22 +1130,26 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
+        <v>0.38307729294835768</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
         <v>2.7127896034142139E-2</v>
       </c>
-      <c r="F12" s="6">
-        <f>SQRT(PI()) * 0.1 * D12 * 'additional info'!C23 * 4 / 3 * 10 / 10000000</f>
-        <v>1.7568584822208314E-2</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>61</v>
+      <c r="G12" s="6">
+        <f>SQRT(PI()) * 0.25 * D12 * 'additional info'!C23 * 4 / 3 * 10 / 10000000</f>
+        <v>4.3921462055520791E-2</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>18</v>
       </c>
@@ -1119,22 +1164,26 @@
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
+        <v>0.397131731967927</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
         <v>3.2294910432031566E-2</v>
       </c>
-      <c r="F13" s="6">
-        <f>SQRT(PI()) * 0.1 * D13 * 'additional info'!C24 * 4 / 3 * 10 / 10000000</f>
-        <v>1.9168837060418987E-2</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>61</v>
+      <c r="G13" s="6">
+        <f>SQRT(PI()) * 0.25 * D13 * 'additional info'!C24 * 4 / 3 * 10 / 10000000</f>
+        <v>4.7922092651047479E-2</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>19</v>
       </c>
@@ -1149,22 +1198,26 @@
       </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
+        <v>0.46927141771448849</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="1"/>
         <v>6.2297525268088468E-2</v>
       </c>
-      <c r="F14" s="6">
-        <f>SQRT(PI()) * 0.1 * D14 * 'additional info'!C25 * 4 / 3 * 10 / 10000000</f>
-        <v>2.6623437017143495E-2</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>61</v>
+      <c r="G14" s="6">
+        <f>SQRT(PI()) * 0.25 * D14 * 'additional info'!C25 * 4 / 3 * 10 / 10000000</f>
+        <v>6.655859254285873E-2</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>20</v>
       </c>
@@ -1179,22 +1232,26 @@
       </c>
       <c r="E15" s="6">
         <f t="shared" si="0"/>
+        <v>0.97411583667438095</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="1"/>
         <v>0.12595054040597106</v>
       </c>
-      <c r="F15" s="6">
-        <f>SQRT(PI()) * 0.1 * D15 * 'additional info'!C26 * 4 / 3 * 10 / 10000000</f>
-        <v>7.5710957191945746E-2</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>61</v>
+      <c r="G15" s="6">
+        <f>SQRT(PI()) * 0.25 * D15 * 'additional info'!C26 * 4 / 3 * 10 / 10000000</f>
+        <v>0.18927739297986429</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>21</v>
       </c>
@@ -1209,29 +1266,35 @@
       </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
+        <v>0.261712704368326</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
         <v>3.3101827822184411E-2</v>
       </c>
-      <c r="F16" s="6">
-        <f>SQRT(PI()) * 0.1 * D16 * 'additional info'!C27 * 4 / 3 * 10 / 10000000</f>
-        <v>1.9406834904205167E-2</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>61</v>
+      <c r="G16" s="6">
+        <f>SQRT(PI()) * 0.25 * D16 * 'additional info'!C27 * 4 / 3 * 10 / 10000000</f>
+        <v>4.8517087260512917E-2</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
